--- a/data/hotels_by_city/Houston/Houston_shard_219.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_219.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="268">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d595438-Reviews-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>396</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Extended-Stay-America-Houston-Katy-Frwy-Energy-Corridor.h662665.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,699 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r593241746-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>595438</t>
+  </si>
+  <si>
+    <t>593241746</t>
+  </si>
+  <si>
+    <t>07/05/2018</t>
+  </si>
+  <si>
+    <t>Check-in with a Threat</t>
+  </si>
+  <si>
+    <t>The room smelled strongly of mildew, and you could see the large water stain in the kitchen area. Room was clean, but poorly maintained. The worst is the check-in! Never in my life have I been threatened with a canned "welcome" speech at check-in. Phrases like  "you will be sued if" , "expect legal action if", "do not set fire", and "you will be prosecuted". Lovely. Welcome to our hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>The room smelled strongly of mildew, and you could see the large water stain in the kitchen area. Room was clean, but poorly maintained. The worst is the check-in! Never in my life have I been threatened with a canned "welcome" speech at check-in. Phrases like  "you will be sued if" , "expect legal action if", "do not set fire", and "you will be prosecuted". Lovely. Welcome to our hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r588680250-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>588680250</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Clean room</t>
+  </si>
+  <si>
+    <t>Me and my wife was here for her birthday. We loved their extra spacious room with decent amenities available. Customer service was on point. It’s great value for your money spent. If you looking for reasonable price hotel with limited service this is best option. Breakfast can be better.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded June 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2018</t>
+  </si>
+  <si>
+    <t>Me and my wife was here for her birthday. We loved their extra spacious room with decent amenities available. Customer service was on point. It’s great value for your money spent. If you looking for reasonable price hotel with limited service this is best option. Breakfast can be better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r588583103-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>588583103</t>
+  </si>
+  <si>
+    <t>Info about my stay</t>
+  </si>
+  <si>
+    <t>I'm currently living in room 102 and I have just completed 30 days here. The staffs at the reception have been very kind to me and very respectful. I haven't had any issues yet living here. The rates is really good. They also have a shuttle driver, Mohammed who has been more than helpful to me. He drops me off and picks me up from work every weekday.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I'm currently living in room 102 and I have just completed 30 days here. The staffs at the reception have been very kind to me and very respectful. I haven't had any issues yet living here. The rates is really good. They also have a shuttle driver, Mohammed who has been more than helpful to me. He drops me off and picks me up from work every weekday.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r561635745-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>561635745</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>Stay away.  Sleeping in your car is a better alternative!</t>
+  </si>
+  <si>
+    <t>There were many problems with this motel.  The front door closes early and you need to use two other doors, however, one of those doors was out of order and you would have to use a different door  that was very far from the elevator.  The wifi did not work well at all when you play for the enhanced wifi, the signal strength is the same as the free wifi.  The shower head was not put on correctly and leaked all over the bathroom floor.  It is a very depressing place to stay.  I promise you, you will regret staying at this motel.  And they do not have free breakfast.  All they have is coffee and granola bars.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2018</t>
+  </si>
+  <si>
+    <t>There were many problems with this motel.  The front door closes early and you need to use two other doors, however, one of those doors was out of order and you would have to use a different door  that was very far from the elevator.  The wifi did not work well at all when you play for the enhanced wifi, the signal strength is the same as the free wifi.  The shower head was not put on correctly and leaked all over the bathroom floor.  It is a very depressing place to stay.  I promise you, you will regret staying at this motel.  And they do not have free breakfast.  All they have is coffee and granola bars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r558029705-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558029705</t>
+  </si>
+  <si>
+    <t>02/02/2018</t>
+  </si>
+  <si>
+    <t>good value</t>
+  </si>
+  <si>
+    <t>all things considered, I find this the best budget hotel in the energy corridor. You can purchase high speed wifi for $4 and it actually works, the air filters seem to be reasonably kept up, the air was fine, everything in the room worked, and it was cleanMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded February 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2018</t>
+  </si>
+  <si>
+    <t>all things considered, I find this the best budget hotel in the energy corridor. You can purchase high speed wifi for $4 and it actually works, the air filters seem to be reasonably kept up, the air was fine, everything in the room worked, and it was cleanMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r555695069-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555695069</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Not what I expected.</t>
+  </si>
+  <si>
+    <t>1. Check in was fast and easy, But the checking desk was full of clutter and the clerk was busy folding towels. 2. A black cat in the hallways.3. No ice buckets, BUT also NO ICE.4. Furniture was dated and the room had a musty smell.5. WiFi was free but slow.6. Bed was hard and uncomfortable. 7 The tub was draining very slow, so I was standing in a pool of water.8 Yes they had breakfast. Coffee but NO Coffee cups and a granola bar for breakfast. This is Not what I expected, So I will NOT return.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2018</t>
+  </si>
+  <si>
+    <t>1. Check in was fast and easy, But the checking desk was full of clutter and the clerk was busy folding towels. 2. A black cat in the hallways.3. No ice buckets, BUT also NO ICE.4. Furniture was dated and the room had a musty smell.5. WiFi was free but slow.6. Bed was hard and uncomfortable. 7 The tub was draining very slow, so I was standing in a pool of water.8 Yes they had breakfast. Coffee but NO Coffee cups and a granola bar for breakfast. This is Not what I expected, So I will NOT return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r551018153-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>551018153</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>No Cable / No Heat</t>
+  </si>
+  <si>
+    <t>I walked into Extended Stay and the lady never mention that the cable did not work and the room she gave me the heater was broke. After an hour of realization that my room was still 65 degrees and the tv was pitch black that something was wrong. When i call the front office, the guy had an attitude with me, Like it was my fault that the cable didn’t work. NEVER AGAIN. You couldn’t pay me to stay there. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded January 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2018</t>
+  </si>
+  <si>
+    <t>I walked into Extended Stay and the lady never mention that the cable did not work and the room she gave me the heater was broke. After an hour of realization that my room was still 65 degrees and the tv was pitch black that something was wrong. When i call the front office, the guy had an attitude with me, Like it was my fault that the cable didn’t work. NEVER AGAIN. You couldn’t pay me to stay there. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r550794494-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>550794494</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>Comfort During Stay</t>
+  </si>
+  <si>
+    <t>Selected this hotel to stay during holidays visiting relative in Houston area.During times at hotrl, found out that the Cable TV Service was not available due to a satellite setting not performed or pending by cable TV company.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Selected this hotel to stay during holidays visiting relative in Houston area.During times at hotrl, found out that the Cable TV Service was not available due to a satellite setting not performed or pending by cable TV company.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r549632559-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>549632559</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>The hotel is in general very good for the price, except that there was no breakfast. Carpets smelled. Sheets were clean, hotel had very easy access, rooms need to be aired before accepting guests. Very good priceMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded December 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is in general very good for the price, except that there was no breakfast. Carpets smelled. Sheets were clean, hotel had very easy access, rooms need to be aired before accepting guests. Very good priceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r539817923-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539817923</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>My last resort</t>
+  </si>
+  <si>
+    <t>I have had two longer-term stays here. The most recent was due to Hurricane Harvey - by the time I returned to Houston, this was pretty much my only hotel option. The rooms are rough, maintenance uneven, internet pretty bad, laundry room about 50% operational. I found the staff pretty good - it appears to me that they do the best with the little or no support they get from management. Boxes and excess refrigerators, etc. are stored in the halls, missing stair runner and missing window on rear stairwell were never repaired in time we were there. Car on blocks in parking lot for over a week. Trucks parked across multiple spots, handicapped parking used by vehicles with no handicap stickers.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded November 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2017</t>
+  </si>
+  <si>
+    <t>I have had two longer-term stays here. The most recent was due to Hurricane Harvey - by the time I returned to Houston, this was pretty much my only hotel option. The rooms are rough, maintenance uneven, internet pretty bad, laundry room about 50% operational. I found the staff pretty good - it appears to me that they do the best with the little or no support they get from management. Boxes and excess refrigerators, etc. are stored in the halls, missing stair runner and missing window on rear stairwell were never repaired in time we were there. Car on blocks in parking lot for over a week. Trucks parked across multiple spots, handicapped parking used by vehicles with no handicap stickers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r510233743-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>510233743</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If price is all that matters </t>
+  </si>
+  <si>
+    <t>Poorly run front office. Makes many mistakes with billing. Very worn rooms. Need to request for amenities in rooms. There will not be any. Smells of cigarettes and mold. No office staff until 7 AM so if you need to check out, wait.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Poorly run front office. Makes many mistakes with billing. Very worn rooms. Need to request for amenities in rooms. There will not be any. Smells of cigarettes and mold. No office staff until 7 AM so if you need to check out, wait.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r506662418-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506662418</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>A home when you are away from your actual home!</t>
+  </si>
+  <si>
+    <t>Perfect and awesome! I was on a business visit to USA from india. It was a good time staying there and also the hotel was located nearby to my business work location. Overall the people over there were good and i would like to visit back if i come here back again. A home when you are away from your actual home!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded July 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2017</t>
+  </si>
+  <si>
+    <t>Perfect and awesome! I was on a business visit to USA from india. It was a good time staying there and also the hotel was located nearby to my business work location. Overall the people over there were good and i would like to visit back if i come here back again. A home when you are away from your actual home!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r502667223-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>502667223</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Hotel From Hell!!!</t>
+  </si>
+  <si>
+    <t>Where do I started with the roaches or the fact that around 2 a.m Saturday July 15, 2017 To be exact I reported a man breaking windows trying to enter a room downnstairs. Wait I have an even better one for you. How about a man tells me he sale candy, soda and nacho in room 209. Whatever I want they got it🤔🤔🤔I'm like really, what really going on. I told the lady at the front desk!!! Nothing happened, We not going to talk about the use of marijuana that me and my 5 yrs old have to smell on a daily basis. Then you have this Assistant GM, by the name ADRIANA GONZALEZ THAT DOES NOTHING!!! After letting her know about the man breaking the window to get into hotel. She never came in, I had to request that she contact me, hours later she seen to have know care in the world about what happened. To the point of her lying saying the man went to jail. Only because I'm addressing her on her POOR leadership skills. She's trying to tell me what happened and I'm the reason the young lady at the front desk knew and able to call law enforcement why she's at home I'm sure relaxing in her bed. Why we over here freaked out. I didn't get any sleep because I didn't know what the outcome was of this event, my blood pressure is...Where do I started with the roaches or the fact that around 2 a.m Saturday July 15, 2017 To be exact I reported a man breaking windows trying to enter a room downnstairs. Wait I have an even better one for you. How about a man tells me he sale candy, soda and nacho in room 209. Whatever I want they got itI'm like really, what really going on. I told the lady at the front desk!!! Nothing happened, We not going to talk about the use of marijuana that me and my 5 yrs old have to smell on a daily basis. Then you have this Assistant GM, by the name ADRIANA GONZALEZ THAT DOES NOTHING!!! After letting her know about the man breaking the window to get into hotel. She never came in, I had to request that she contact me, hours later she seen to have know care in the world about what happened. To the point of her lying saying the man went to jail. Only because I'm addressing her on her POOR leadership skills. She's trying to tell me what happened and I'm the reason the young lady at the front desk knew and able to call law enforcement why she's at home I'm sure relaxing in her bed. Why we over here freaked out. I didn't get any sleep because I didn't know what the outcome was of this event, my blood pressure is now 160/112. Well guess what the man didn't go to jail afterall, she told them to charged him 250.00 for the window. What happened to informing your guess, since I was the one that reported this mess. Specially with me not knowing if this man saw me. She just flat out lied to me..No one was able to even reach her after the first call. After 10 a.m I was told the man was only trying to get in the room because his wife locked him out.  What that has to do with other's safety I'm not sure. So you telling me if we forget our room card, it's ok just break a window.  If you need to get back into your room. Then she tells me the couple were having a disagreement that no one WITNESS!!! I don't care that has nothing to do with me. I only waitness a man breaking into this place after 2 a.m Now keep in mind NO one WITNESS that part about him and this wife. Still this doesn't justify what took place and the fact she lied about it him going to jail. She was not answering her phone at all!!! Sunday the lady at the front had to be rushed to the hospital but was unable to reach ADRIANA GONZALEZ again, after Numerous attempts to finally reaching her. She had the other young lady that 7 mos expecting to catch the train then and bus to come in on her off day....But ADRIANA GONZALEZ stays near by. What happened to the captain going down with his ship!!! Also a few times, someone Kept setting the major fire alarm off for day in the mornings. Then the fire department has to come out. They even had a man to break into rooms to sleep. The ice machines are very unsafe just nasty and we not going to talk about the cars that was broken into around 10 pm...why 10 pm because the rental cop come in at 11pm....My my my is all I can say. They say you get what you pay for, well when it comes to this places that's a under statement.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded July 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2017</t>
+  </si>
+  <si>
+    <t>Where do I started with the roaches or the fact that around 2 a.m Saturday July 15, 2017 To be exact I reported a man breaking windows trying to enter a room downnstairs. Wait I have an even better one for you. How about a man tells me he sale candy, soda and nacho in room 209. Whatever I want they got it🤔🤔🤔I'm like really, what really going on. I told the lady at the front desk!!! Nothing happened, We not going to talk about the use of marijuana that me and my 5 yrs old have to smell on a daily basis. Then you have this Assistant GM, by the name ADRIANA GONZALEZ THAT DOES NOTHING!!! After letting her know about the man breaking the window to get into hotel. She never came in, I had to request that she contact me, hours later she seen to have know care in the world about what happened. To the point of her lying saying the man went to jail. Only because I'm addressing her on her POOR leadership skills. She's trying to tell me what happened and I'm the reason the young lady at the front desk knew and able to call law enforcement why she's at home I'm sure relaxing in her bed. Why we over here freaked out. I didn't get any sleep because I didn't know what the outcome was of this event, my blood pressure is...Where do I started with the roaches or the fact that around 2 a.m Saturday July 15, 2017 To be exact I reported a man breaking windows trying to enter a room downnstairs. Wait I have an even better one for you. How about a man tells me he sale candy, soda and nacho in room 209. Whatever I want they got itI'm like really, what really going on. I told the lady at the front desk!!! Nothing happened, We not going to talk about the use of marijuana that me and my 5 yrs old have to smell on a daily basis. Then you have this Assistant GM, by the name ADRIANA GONZALEZ THAT DOES NOTHING!!! After letting her know about the man breaking the window to get into hotel. She never came in, I had to request that she contact me, hours later she seen to have know care in the world about what happened. To the point of her lying saying the man went to jail. Only because I'm addressing her on her POOR leadership skills. She's trying to tell me what happened and I'm the reason the young lady at the front desk knew and able to call law enforcement why she's at home I'm sure relaxing in her bed. Why we over here freaked out. I didn't get any sleep because I didn't know what the outcome was of this event, my blood pressure is now 160/112. Well guess what the man didn't go to jail afterall, she told them to charged him 250.00 for the window. What happened to informing your guess, since I was the one that reported this mess. Specially with me not knowing if this man saw me. She just flat out lied to me..No one was able to even reach her after the first call. After 10 a.m I was told the man was only trying to get in the room because his wife locked him out.  What that has to do with other's safety I'm not sure. So you telling me if we forget our room card, it's ok just break a window.  If you need to get back into your room. Then she tells me the couple were having a disagreement that no one WITNESS!!! I don't care that has nothing to do with me. I only waitness a man breaking into this place after 2 a.m Now keep in mind NO one WITNESS that part about him and this wife. Still this doesn't justify what took place and the fact she lied about it him going to jail. She was not answering her phone at all!!! Sunday the lady at the front had to be rushed to the hospital but was unable to reach ADRIANA GONZALEZ again, after Numerous attempts to finally reaching her. She had the other young lady that 7 mos expecting to catch the train then and bus to come in on her off day....But ADRIANA GONZALEZ stays near by. What happened to the captain going down with his ship!!! Also a few times, someone Kept setting the major fire alarm off for day in the mornings. Then the fire department has to come out. They even had a man to break into rooms to sleep. The ice machines are very unsafe just nasty and we not going to talk about the cars that was broken into around 10 pm...why 10 pm because the rental cop come in at 11pm....My my my is all I can say. They say you get what you pay for, well when it comes to this places that's a under statement.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r499943575-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>499943575</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>Bugs, Parties nightly, No management, Rude staff, Falling light fixture covers, Fraudulent Charges, Vandalism</t>
+  </si>
+  <si>
+    <t>Bugs, Parties nightly, No management, Rude staff, Falling light fixture covers (corner hit my husbands head after falling on him), Fraudulent Charges (over $381 and counting, we're still here but already paid in full), Vandalism in parking lot (or should I say partying lot). No toiletries, mornings without breakfast/coffee, Fire alarms going off daily, Smoke in hallways and stairwell, Just nasty service and grounds.I'm afraid to stay any longer because it's almost as if the more you complain the more there is that happens to complain about.My confirmation number is 132689737MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Bugs, Parties nightly, No management, Rude staff, Falling light fixture covers (corner hit my husbands head after falling on him), Fraudulent Charges (over $381 and counting, we're still here but already paid in full), Vandalism in parking lot (or should I say partying lot). No toiletries, mornings without breakfast/coffee, Fire alarms going off daily, Smoke in hallways and stairwell, Just nasty service and grounds.I'm afraid to stay any longer because it's almost as if the more you complain the more there is that happens to complain about.My confirmation number is 132689737More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r498427769-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>498427769</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>Fearful for nothing</t>
+  </si>
+  <si>
+    <t>After seeing a lot of reviews I was afraid I was checking into a roach motel. I didn't ee a single bug my entire stay. The room was nice clean and smelled fresh. Bed was comfortable, and everything was in working order.There are areas to be improved. The nightstand was won, the outside trash was overflowed And some hallways needed cleaning and maybe retouching on the paint.  The biggest drawback for me making this more than 3 stars is that no iron or ironing board is in the room, that seems an essential for any type hotel billed as extended or long term stays. A few other good things...security patrols the facilities overnight, Wifi connection is solid, location is easy to get too as for Houston there's not a lot of traffic in the area, and you aren't too far from some good shopping and dining facilities.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2017</t>
+  </si>
+  <si>
+    <t>After seeing a lot of reviews I was afraid I was checking into a roach motel. I didn't ee a single bug my entire stay. The room was nice clean and smelled fresh. Bed was comfortable, and everything was in working order.There are areas to be improved. The nightstand was won, the outside trash was overflowed And some hallways needed cleaning and maybe retouching on the paint.  The biggest drawback for me making this more than 3 stars is that no iron or ironing board is in the room, that seems an essential for any type hotel billed as extended or long term stays. A few other good things...security patrols the facilities overnight, Wifi connection is solid, location is easy to get too as for Houston there's not a lot of traffic in the area, and you aren't too far from some good shopping and dining facilities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r481052654-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481052654</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>Better than I expected</t>
+  </si>
+  <si>
+    <t>Extended Stays vary all over the place. There is one in Sugar Land and another on West Belt and Richmond in Houston where I would not stay again.This one referred to as City Centre Energy Corridor is a cut above the rest with nice facilities and a better clientele than most.It is a little hard to find not being visible from the freeway and you have to catch the sign.The only warning is that if you are a member of the Extended Stay club and they send out email promo discounts  you may have to make them deduct that portion on checkout as they run the pre promo price up on your credit card and may not remove it unless you point it out a check outMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded May 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2017</t>
+  </si>
+  <si>
+    <t>Extended Stays vary all over the place. There is one in Sugar Land and another on West Belt and Richmond in Houston where I would not stay again.This one referred to as City Centre Energy Corridor is a cut above the rest with nice facilities and a better clientele than most.It is a little hard to find not being visible from the freeway and you have to catch the sign.The only warning is that if you are a member of the Extended Stay club and they send out email promo discounts  you may have to make them deduct that portion on checkout as they run the pre promo price up on your credit card and may not remove it unless you point it out a check outMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r479030449-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>479030449</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>Not worth the money even though it's cheap</t>
+  </si>
+  <si>
+    <t>The hotel is in need of serious upgrades. Screens on our heater/AC and microwave didn't work, walls were paper thin and we could hear everything outside, next door, from the hall, and upstairs. When asking for an iron and other kitchen supplies, it took ages to actually receive them, and the iron didn't come until significantly later than needed to get to work on time.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded April 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is in need of serious upgrades. Screens on our heater/AC and microwave didn't work, walls were paper thin and we could hear everything outside, next door, from the hall, and upstairs. When asking for an iron and other kitchen supplies, it took ages to actually receive them, and the iron didn't come until significantly later than needed to get to work on time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r470873278-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470873278</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>Excellent Staff, Location &amp; Price</t>
+  </si>
+  <si>
+    <t>I have stayed many nights here at the hotel waiting on meetings in Houston and daily have had to extend they have always kept me in the same room and worked around me,Maria the GM and all of the staff are very polite and do all they can to make your stay as good as it can be,Rooms have cooker top, Microwave and fridge, TV Good channels and internet free and good connectionCannot complain at allMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed many nights here at the hotel waiting on meetings in Houston and daily have had to extend they have always kept me in the same room and worked around me,Maria the GM and all of the staff are very polite and do all they can to make your stay as good as it can be,Rooms have cooker top, Microwave and fridge, TV Good channels and internet free and good connectionCannot complain at allMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r439548310-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>439548310</t>
+  </si>
+  <si>
+    <t>11/23/2016</t>
+  </si>
+  <si>
+    <t>Very Nice Place .... Beautiful Staff...... Professional GM</t>
+  </si>
+  <si>
+    <t>Comfortable place to stay .... home away from homeVery easy to find..... amenities within 5 miles radius.i have stayed here twice and it keeps getting better and better......The GM And staff goes out there way to see to all guess needs...... you gotta see for your self..... come try it I promise you will come back indeedMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded November 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2016</t>
+  </si>
+  <si>
+    <t>Comfortable place to stay .... home away from homeVery easy to find..... amenities within 5 miles radius.i have stayed here twice and it keeps getting better and better......The GM And staff goes out there way to see to all guess needs...... you gotta see for your self..... come try it I promise you will come back indeedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r439050194-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>439050194</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>I do not recommend this hotel</t>
+  </si>
+  <si>
+    <t>I decided to stay at the Extended Stay at the last minute. I came to Houston for a Dance Convention for my daughter. I was tired and exhausted so when I booked this hotel I was happy that it was 10 mins away from where the convention was and that it was newly renovated. When I checked it the girl at the front desk was very welcoming and prompt about answering my questions.
+When I checked into my room it was snug... the toilet wouldnt flush and the fridge was leaking water. I called to inform Taij? and she moved us to a new room.This new room wasnt even cleaned. There was sticky stuff on the floor with baby roaches around it. There was a roach in the sink. When I went to put my things on the bed there was food on the floor. I was so tired, I was like.. whatever. I just want to clean up and get to bed. When I went to turn down the sheets to put my daughter to bed the sheets were dirty with crumbs under them, stains and hair. This was something I could not look past. I called the front desk to request some fresh sheets and I will say that she brought them up and soon as she could and apologized. The new sheets still had stains and holes in them.
+When I finally got my daughter to bed...I decided to stay at the Extended Stay at the last minute. I came to Houston for a Dance Convention for my daughter. I was tired and exhausted so when I booked this hotel I was happy that it was 10 mins away from where the convention was and that it was newly renovated. When I checked it the girl at the front desk was very welcoming and prompt about answering my questions.When I checked into my room it was snug... the toilet wouldnt flush and the fridge was leaking water. I called to inform Taij? and she moved us to a new room.This new room wasnt even cleaned. There was sticky stuff on the floor with baby roaches around it. There was a roach in the sink. When I went to put my things on the bed there was food on the floor. I was so tired, I was like.. whatever. I just want to clean up and get to bed. When I went to turn down the sheets to put my daughter to bed the sheets were dirty with crumbs under them, stains and hair. This was something I could not look past. I called the front desk to request some fresh sheets and I will say that she brought them up and soon as she could and apologized. The new sheets still had stains and holes in them.When I finally got my daughter to bed and went to turn on the AC that wasnt working. I was so overwhelmed and exhausted I said forget it.I have never stayed at and Extended Stay. SO, for this to be my very first stay with this hotel I would not want to go back. I was informed that the manager would be told but non one tried to contact me in any way to try and make this better. Also, you shouldnt put that you give breakfast in the mornings. I was highly disappointed that there was just a handful of muffins and nature valley bars. There was no cereal, fruit, yogurt not even milk or juice! My daughter or myself do not drink coffee. So, when I was told that there would be breakfast in the morning you could understand how disappointing it was for us to walk down there and see small muffins and coffee. We ended up eating no breakfast and we went straight to the convention.MoreShow less</t>
+  </si>
+  <si>
+    <t>I decided to stay at the Extended Stay at the last minute. I came to Houston for a Dance Convention for my daughter. I was tired and exhausted so when I booked this hotel I was happy that it was 10 mins away from where the convention was and that it was newly renovated. When I checked it the girl at the front desk was very welcoming and prompt about answering my questions.
+When I checked into my room it was snug... the toilet wouldnt flush and the fridge was leaking water. I called to inform Taij? and she moved us to a new room.This new room wasnt even cleaned. There was sticky stuff on the floor with baby roaches around it. There was a roach in the sink. When I went to put my things on the bed there was food on the floor. I was so tired, I was like.. whatever. I just want to clean up and get to bed. When I went to turn down the sheets to put my daughter to bed the sheets were dirty with crumbs under them, stains and hair. This was something I could not look past. I called the front desk to request some fresh sheets and I will say that she brought them up and soon as she could and apologized. The new sheets still had stains and holes in them.
+When I finally got my daughter to bed...I decided to stay at the Extended Stay at the last minute. I came to Houston for a Dance Convention for my daughter. I was tired and exhausted so when I booked this hotel I was happy that it was 10 mins away from where the convention was and that it was newly renovated. When I checked it the girl at the front desk was very welcoming and prompt about answering my questions.When I checked into my room it was snug... the toilet wouldnt flush and the fridge was leaking water. I called to inform Taij? and she moved us to a new room.This new room wasnt even cleaned. There was sticky stuff on the floor with baby roaches around it. There was a roach in the sink. When I went to put my things on the bed there was food on the floor. I was so tired, I was like.. whatever. I just want to clean up and get to bed. When I went to turn down the sheets to put my daughter to bed the sheets were dirty with crumbs under them, stains and hair. This was something I could not look past. I called the front desk to request some fresh sheets and I will say that she brought them up and soon as she could and apologized. The new sheets still had stains and holes in them.When I finally got my daughter to bed and went to turn on the AC that wasnt working. I was so overwhelmed and exhausted I said forget it.I have never stayed at and Extended Stay. SO, for this to be my very first stay with this hotel I would not want to go back. I was informed that the manager would be told but non one tried to contact me in any way to try and make this better. Also, you shouldnt put that you give breakfast in the mornings. I was highly disappointed that there was just a handful of muffins and nature valley bars. There was no cereal, fruit, yogurt not even milk or juice! My daughter or myself do not drink coffee. So, when I was told that there would be breakfast in the morning you could understand how disappointing it was for us to walk down there and see small muffins and coffee. We ended up eating no breakfast and we went straight to the convention.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r438019871-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438019871</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t>meeting very nice and friendly staff of the hotel made my stay here very enjoyable.</t>
+  </si>
+  <si>
+    <t>Very nice rooms with affordable price, also well equipped with microwave, fridge, cooking utensils etc. Vehicle available to convey us to our training center upon request. the environment is quiet and conducive to live in. i will gladly recommend this hotel to everyone because is very affordable and value for money. Thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice rooms with affordable price, also well equipped with microwave, fridge, cooking utensils etc. Vehicle available to convey us to our training center upon request. the environment is quiet and conducive to live in. i will gladly recommend this hotel to everyone because is very affordable and value for money. Thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r421344870-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>421344870</t>
+  </si>
+  <si>
+    <t>09/22/2016</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>Upon check-in, when we inquired where the nearest grocery store was, we were told there are none. Grab &amp; go breakfast was peanut butter granola bars &amp; light roast coffee dark roast was empty &amp; when my husband inquired to the 3 people behind the desk at 7:30, that's it &amp; she turned to talk to the others behind the desk.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r402466996-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>402466996</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t>Not for me</t>
+  </si>
+  <si>
+    <t>I really wish tripadvisor would update their rating system. I couldn't give this hotel a 3 but don't think it's a 2 either. It's somewhere between average and poor rating (i.e. 2 1/2 stars).
+It is a decent budget hotel but does have its flaws. Even with the recent renovations it looks a little worn and cheap. Like other reviewers, I have stayed at Motel 6s that were nicer.
+My biggest problems I had with the hotel were:
+1) There was a strong smell in the hallways. I don't think it was the hotel per say but someone cooking in their room...kind of like curry or some other smelly dish like that. 
+2) The room had an odd smell to it too. It was light and smelled it every time you went in and out of the room. I don't know if it was from some cleaning solution or maybe odor left from people cooking in the room before.
+3) My sheets were dirty. There were faint black marks in the sheet. Looked like grease or dirt that couldn't get washed out. I ripped it off the bed and just used the blanket...didn't see anything on it. 
+4) The microwave was dirty. In the back of it in the corners, the tougher to clean places, there was dried up food.  I did use the microwave but heated my food in a brown bag. 
+5) I found food and trash left...I really wish tripadvisor would update their rating system. I couldn't give this hotel a 3 but don't think it's a 2 either. It's somewhere between average and poor rating (i.e. 2 1/2 stars).It is a decent budget hotel but does have its flaws. Even with the recent renovations it looks a little worn and cheap. Like other reviewers, I have stayed at Motel 6s that were nicer.My biggest problems I had with the hotel were:1) There was a strong smell in the hallways. I don't think it was the hotel per say but someone cooking in their room...kind of like curry or some other smelly dish like that. 2) The room had an odd smell to it too. It was light and smelled it every time you went in and out of the room. I don't know if it was from some cleaning solution or maybe odor left from people cooking in the room before.3) My sheets were dirty. There were faint black marks in the sheet. Looked like grease or dirt that couldn't get washed out. I ripped it off the bed and just used the blanket...didn't see anything on it. 4) The microwave was dirty. In the back of it in the corners, the tougher to clean places, there was dried up food.  I did use the microwave but heated my food in a brown bag. 5) I found food and trash left in the top cupboard in the kitchen. 6) The refrigerator had dents all over the front of it. It looked like someone took an object and whacked it repeatedly. Not something you expect to see from a recently remodeled hotel. 7) The decor of the kitchen looked like something from the 80s or 90s. It was that cheap white board with brown liner.  It didn't look like it had been remodeled. 8) There was only a small less than 1/4 roll of toilet paper left in the room. No extra rolls...really?9) The walls were really thin. More so than other hotels. I not only heard people in other rooms and walking down the hall, I could also hear them walking above me (was on first floor). I can't remember ever having that happen in another hotel. 10) And lastly, I was forced to wait to check in supposedly because they didn't know what rooms where available and had to check first. They ask I take a seat and give them 5 minutes until one of the ladies got back. That was a first for me...There wasn't a lot of bright spots for me but there were a few. 1) The bathroom was a decent decor (much better than the kitchen) but was small. 2) The cable was good. They offered a good variety and worked well. 3) The mattress had an encasement on it to protect against bed bugs. I don't know if that is a good or bad thing...guess good because there were no bugs??4) The room comes with a microwave and refrigerator. 5) Lasty but probably the best was Taij. While I didn't care to wait to check in, she was a delight.  I'm not sure why she is working there but she was a gem in an otherwise below average experience. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>I really wish tripadvisor would update their rating system. I couldn't give this hotel a 3 but don't think it's a 2 either. It's somewhere between average and poor rating (i.e. 2 1/2 stars).
+It is a decent budget hotel but does have its flaws. Even with the recent renovations it looks a little worn and cheap. Like other reviewers, I have stayed at Motel 6s that were nicer.
+My biggest problems I had with the hotel were:
+1) There was a strong smell in the hallways. I don't think it was the hotel per say but someone cooking in their room...kind of like curry or some other smelly dish like that. 
+2) The room had an odd smell to it too. It was light and smelled it every time you went in and out of the room. I don't know if it was from some cleaning solution or maybe odor left from people cooking in the room before.
+3) My sheets were dirty. There were faint black marks in the sheet. Looked like grease or dirt that couldn't get washed out. I ripped it off the bed and just used the blanket...didn't see anything on it. 
+4) The microwave was dirty. In the back of it in the corners, the tougher to clean places, there was dried up food.  I did use the microwave but heated my food in a brown bag. 
+5) I found food and trash left...I really wish tripadvisor would update their rating system. I couldn't give this hotel a 3 but don't think it's a 2 either. It's somewhere between average and poor rating (i.e. 2 1/2 stars).It is a decent budget hotel but does have its flaws. Even with the recent renovations it looks a little worn and cheap. Like other reviewers, I have stayed at Motel 6s that were nicer.My biggest problems I had with the hotel were:1) There was a strong smell in the hallways. I don't think it was the hotel per say but someone cooking in their room...kind of like curry or some other smelly dish like that. 2) The room had an odd smell to it too. It was light and smelled it every time you went in and out of the room. I don't know if it was from some cleaning solution or maybe odor left from people cooking in the room before.3) My sheets were dirty. There were faint black marks in the sheet. Looked like grease or dirt that couldn't get washed out. I ripped it off the bed and just used the blanket...didn't see anything on it. 4) The microwave was dirty. In the back of it in the corners, the tougher to clean places, there was dried up food.  I did use the microwave but heated my food in a brown bag. 5) I found food and trash left in the top cupboard in the kitchen. 6) The refrigerator had dents all over the front of it. It looked like someone took an object and whacked it repeatedly. Not something you expect to see from a recently remodeled hotel. 7) The decor of the kitchen looked like something from the 80s or 90s. It was that cheap white board with brown liner.  It didn't look like it had been remodeled. 8) There was only a small less than 1/4 roll of toilet paper left in the room. No extra rolls...really?9) The walls were really thin. More so than other hotels. I not only heard people in other rooms and walking down the hall, I could also hear them walking above me (was on first floor). I can't remember ever having that happen in another hotel. 10) And lastly, I was forced to wait to check in supposedly because they didn't know what rooms where available and had to check first. They ask I take a seat and give them 5 minutes until one of the ladies got back. That was a first for me...There wasn't a lot of bright spots for me but there were a few. 1) The bathroom was a decent decor (much better than the kitchen) but was small. 2) The cable was good. They offered a good variety and worked well. 3) The mattress had an encasement on it to protect against bed bugs. I don't know if that is a good or bad thing...guess good because there were no bugs??4) The room comes with a microwave and refrigerator. 5) Lasty but probably the best was Taij. While I didn't care to wait to check in, she was a delight.  I'm not sure why she is working there but she was a gem in an otherwise below average experience. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r398730051-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>398730051</t>
+  </si>
+  <si>
+    <t>07/29/2016</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>I had a nice experience at Extended Stay America. The front Desk, the Manager and staff were very friendly and resourceful. The rooms are spacious. I didnt like the idea of cleaning the rooms (housekeeping) only once a week.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2016</t>
+  </si>
+  <si>
+    <t>I had a nice experience at Extended Stay America. The front Desk, the Manager and staff were very friendly and resourceful. The rooms are spacious. I didnt like the idea of cleaning the rooms (housekeeping) only once a week.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r390869247-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>390869247</t>
+  </si>
+  <si>
+    <t>07/09/2016</t>
+  </si>
+  <si>
+    <t>Peasefull friendly stay</t>
+  </si>
+  <si>
+    <t>As I arrived was greeted with A welcome  hello how may I help you By Taij.Was placed in A room that was very clean everything worked perfect was quiet bed slept comfi.Was supprised by room service went the extra mile to keep my room nice   nice pool plenty shade to park cars in.The manager Missy checked make sure all was good  Naz  and Adnana always smiles and good morning good evening  made me feel at home.       thanks staff for makeing me feel at homeMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded July 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2016</t>
+  </si>
+  <si>
+    <t>As I arrived was greeted with A welcome  hello how may I help you By Taij.Was placed in A room that was very clean everything worked perfect was quiet bed slept comfi.Was supprised by room service went the extra mile to keep my room nice   nice pool plenty shade to park cars in.The manager Missy checked make sure all was good  Naz  and Adnana always smiles and good morning good evening  made me feel at home.       thanks staff for makeing me feel at homeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r389905182-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>389905182</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Stay </t>
+  </si>
+  <si>
+    <t>Excellent customer service and guest accommodation. Front desk was very friendly and courteous. Awesome room with healthy environment. Breakfast to go was always available in the morning. Taj from front desk took care of me. People were all smiles and make your day special.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded July 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2016</t>
+  </si>
+  <si>
+    <t>Excellent customer service and guest accommodation. Front desk was very friendly and courteous. Awesome room with healthy environment. Breakfast to go was always available in the morning. Taj from front desk took care of me. People were all smiles and make your day special.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r387594249-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387594249</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean rooms </t>
+  </si>
+  <si>
+    <t>Rooms are clean and comfortable ,full size refrigerator and nice kitchenette in rooms. staff is helpful..wifi is poor and doesn't work most of the time. Free breakfast is limited..overall not a bad place to stay in Houston.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1231,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1263,1836 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>62</v>
+      </c>
+      <c r="X4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>113</v>
+      </c>
+      <c r="X9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>131</v>
+      </c>
+      <c r="X11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>140</v>
+      </c>
+      <c r="X12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>148</v>
+      </c>
+      <c r="O13" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>149</v>
+      </c>
+      <c r="X13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>157</v>
+      </c>
+      <c r="X14" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>165</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>166</v>
+      </c>
+      <c r="X15" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" t="s">
+        <v>173</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>174</v>
+      </c>
+      <c r="X16" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" t="s">
+        <v>180</v>
+      </c>
+      <c r="L17" t="s">
+        <v>181</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>182</v>
+      </c>
+      <c r="O17" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>183</v>
+      </c>
+      <c r="X17" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J18" t="s">
+        <v>188</v>
+      </c>
+      <c r="K18" t="s">
+        <v>189</v>
+      </c>
+      <c r="L18" t="s">
+        <v>190</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>191</v>
+      </c>
+      <c r="O18" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>192</v>
+      </c>
+      <c r="X18" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>191</v>
+      </c>
+      <c r="O19" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>200</v>
+      </c>
+      <c r="X19" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>204</v>
+      </c>
+      <c r="J20" t="s">
+        <v>205</v>
+      </c>
+      <c r="K20" t="s">
+        <v>206</v>
+      </c>
+      <c r="L20" t="s">
+        <v>207</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>208</v>
+      </c>
+      <c r="O20" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>209</v>
+      </c>
+      <c r="X20" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" t="s">
+        <v>214</v>
+      </c>
+      <c r="K21" t="s">
+        <v>215</v>
+      </c>
+      <c r="L21" t="s">
+        <v>216</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>208</v>
+      </c>
+      <c r="O21" t="s">
+        <v>121</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>218</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>219</v>
+      </c>
+      <c r="J22" t="s">
+        <v>220</v>
+      </c>
+      <c r="K22" t="s">
+        <v>221</v>
+      </c>
+      <c r="L22" t="s">
+        <v>222</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>208</v>
+      </c>
+      <c r="O22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>209</v>
+      </c>
+      <c r="X22" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>225</v>
+      </c>
+      <c r="J23" t="s">
+        <v>226</v>
+      </c>
+      <c r="K23" t="s">
+        <v>227</v>
+      </c>
+      <c r="L23" t="s">
+        <v>228</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>229</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>231</v>
+      </c>
+      <c r="J24" t="s">
+        <v>232</v>
+      </c>
+      <c r="K24" t="s">
+        <v>233</v>
+      </c>
+      <c r="L24" t="s">
+        <v>234</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>235</v>
+      </c>
+      <c r="O24" t="s">
+        <v>78</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>237</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>238</v>
+      </c>
+      <c r="J25" t="s">
+        <v>239</v>
+      </c>
+      <c r="K25" t="s">
+        <v>240</v>
+      </c>
+      <c r="L25" t="s">
+        <v>241</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>242</v>
+      </c>
+      <c r="O25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>243</v>
+      </c>
+      <c r="X25" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>247</v>
+      </c>
+      <c r="J26" t="s">
+        <v>248</v>
+      </c>
+      <c r="K26" t="s">
+        <v>249</v>
+      </c>
+      <c r="L26" t="s">
+        <v>250</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>242</v>
+      </c>
+      <c r="O26" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>251</v>
+      </c>
+      <c r="X26" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>254</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>255</v>
+      </c>
+      <c r="J27" t="s">
+        <v>256</v>
+      </c>
+      <c r="K27" t="s">
+        <v>257</v>
+      </c>
+      <c r="L27" t="s">
+        <v>258</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>242</v>
+      </c>
+      <c r="O27" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>259</v>
+      </c>
+      <c r="X27" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>263</v>
+      </c>
+      <c r="J28" t="s">
+        <v>264</v>
+      </c>
+      <c r="K28" t="s">
+        <v>265</v>
+      </c>
+      <c r="L28" t="s">
+        <v>266</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>267</v>
+      </c>
+      <c r="O28" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_219.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_219.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="422">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,153 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r613139794-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>595438</t>
+  </si>
+  <si>
+    <t>613139794</t>
+  </si>
+  <si>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>No breakfast! Internet too slow! unclean Pool.</t>
+  </si>
+  <si>
+    <t>We reserved this place because it says "breakfast included". There is actually no breakfast at this place. Only coffe and muffin (muffin even finishes quickly so many guests only have the coffe option). Internet too slow. We called front deskmultiple times no one responded. Long check-in time for some guests becuase no one at front desk. No one dares swimming in unclean pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded 3 days ago</t>
+  </si>
+  <si>
+    <t>Responded 3 days ago</t>
+  </si>
+  <si>
+    <t>We reserved this place because it says "breakfast included". There is actually no breakfast at this place. Only coffe and muffin (muffin even finishes quickly so many guests only have the coffe option). Internet too slow. We called front deskmultiple times no one responded. Long check-in time for some guests becuase no one at front desk. No one dares swimming in unclean pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r603935131-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>603935131</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>This sire was very clean and welcoming.  The staff made me feel very safe and secure as I was a female traveling alone.  I would highly recommend this facility for not only for safety but also the proximity to local shopping needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>This sire was very clean and welcoming.  The staff made me feel very safe and secure as I was a female traveling alone.  I would highly recommend this facility for not only for safety but also the proximity to local shopping needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r608342670-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>608342670</t>
+  </si>
+  <si>
+    <t>08/20/2018</t>
+  </si>
+  <si>
+    <t>Helpful in extending my stay!</t>
+  </si>
+  <si>
+    <t>The room was clean and comfortable the whole time I stayed here, for about a month and a half, from the end of May until late July.The hotel does have at least one laundry room, with washers and dryers for self-service, and other amenities too, including an exercise room, and a pool.I did not think to extend my reservation at one point during my stay, and I thought I was going to be kicked out, but the manager, Mychele, was very helpful in not only allowing me to continue to stay there, but even allowed me to stay in the same room!The one point I would make is that you have to make sure they will continue to have the maids come around and clean your room. The last week that I was there, they didn't come around and clean my room.All in all, though, it was a pleasant and safe experience. As long as you use common sense, your items will not be stolen, and you will feel safe here.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>The room was clean and comfortable the whole time I stayed here, for about a month and a half, from the end of May until late July.The hotel does have at least one laundry room, with washers and dryers for self-service, and other amenities too, including an exercise room, and a pool.I did not think to extend my reservation at one point during my stay, and I thought I was going to be kicked out, but the manager, Mychele, was very helpful in not only allowing me to continue to stay there, but even allowed me to stay in the same room!The one point I would make is that you have to make sure they will continue to have the maids come around and clean your room. The last week that I was there, they didn't come around and clean my room.All in all, though, it was a pleasant and safe experience. As long as you use common sense, your items will not be stolen, and you will feel safe here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r608047706-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>608047706</t>
+  </si>
+  <si>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>Terrible stay</t>
+  </si>
+  <si>
+    <t>I and my family checked in after 24 hour flight. It was very bad experience, very old refrigerator and it had leaking water. On asking to have it fixed, lady at desk mentioned it can only be fixed next day. We asked for utensils, the answer was I will put in the request and you will get it tomorrow. So we could not even get a glass that day. I actually immediately checked out but the refund will take few days as they had charged the money for 10 days upfront. My advise, don't stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I and my family checked in after 24 hour flight. It was very bad experience, very old refrigerator and it had leaking water. On asking to have it fixed, lady at desk mentioned it can only be fixed next day. We asked for utensils, the answer was I will put in the request and you will get it tomorrow. So we could not even get a glass that day. I actually immediately checked out but the refund will take few days as they had charged the money for 10 days upfront. My advise, don't stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r594165929-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>594165929</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>No pillow or sheets</t>
+  </si>
+  <si>
+    <t>They would not provide sheets or a pillow for the fold out coach.  They didn't care that my daughter had no sheets or pillow.  While I was discussing it with her on the phone she kept interrupting me talking to other people.  Terrible customer service!  Terrible accommodations! Not clean or updated rooms!  Do not come here!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded July 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2018</t>
+  </si>
+  <si>
+    <t>They would not provide sheets or a pillow for the fold out coach.  They didn't care that my daughter had no sheets or pillow.  While I was discussing it with her on the phone she kept interrupting me talking to other people.  Terrible customer service!  Terrible accommodations! Not clean or updated rooms!  Do not come here!!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r593241746-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>595438</t>
-  </si>
-  <si>
     <t>593241746</t>
   </si>
   <si>
@@ -171,16 +306,13 @@
     <t>The room smelled strongly of mildew, and you could see the large water stain in the kitchen area. Room was clean, but poorly maintained. The worst is the check-in! Never in my life have I been threatened with a canned "welcome" speech at check-in. Phrases like  "you will be sued if" , "expect legal action if", "do not set fire", and "you will be prosecuted". Lovely. Welcome to our hotel!MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>00esa, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded 5 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 5 weeks ago</t>
+    <t>00esa, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded July 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2018</t>
   </si>
   <si>
     <t>The room smelled strongly of mildew, and you could see the large water stain in the kitchen area. Room was clean, but poorly maintained. The worst is the check-in! Never in my life have I been threatened with a canned "welcome" speech at check-in. Phrases like  "you will be sued if" , "expect legal action if", "do not set fire", and "you will be prosecuted". Lovely. Welcome to our hotel!More</t>
@@ -201,9 +333,6 @@
     <t>Me and my wife was here for her birthday. We loved their extra spacious room with decent amenities available. Customer service was on point. It’s great value for your money spent. If you looking for reasonable price hotel with limited service this is best option. Breakfast can be better.MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded June 19, 2018</t>
   </si>
   <si>
@@ -234,6 +363,45 @@
     <t>I'm currently living in room 102 and I have just completed 30 days here. The staffs at the reception have been very kind to me and very respectful. I haven't had any issues yet living here. The rates is really good. They also have a shuttle driver, Mohammed who has been more than helpful to me. He drops me off and picks me up from work every weekday.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r588532459-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>588532459</t>
+  </si>
+  <si>
+    <t>Great Staff!</t>
+  </si>
+  <si>
+    <t>Ali,  the manager,  he will accommodate all your needs.  He is very kind and has good customer service. We had an issue once,  but took good care of the finishing results. I love the staff from Mychelle to Valerie.  Hotel is clean,  I have enjoyed my stay thus far.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ali,  the manager,  he will accommodate all your needs.  He is very kind and has good customer service. We had an issue once,  but took good care of the finishing results. I love the staff from Mychelle to Valerie.  Hotel is clean,  I have enjoyed my stay thus far.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r579757961-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>579757961</t>
+  </si>
+  <si>
+    <t>05/12/2018</t>
+  </si>
+  <si>
+    <t>Turned away after making reservation</t>
+  </si>
+  <si>
+    <t>After traveling 5 hours, we were expecting a room, because I had made a reservation and got a confirmation. What a surprise when I went to check in, and was told they were sold out. The only room available was torn up for the cable man installing a tv. Michele at the desk said she couldn't give us that room. What happened to our reservation?  Michele cancelled the confirmation and put the reason for cancellation as "family emergency ". I will never stay at one of their hotels ever.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded May 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2018</t>
+  </si>
+  <si>
+    <t>After traveling 5 hours, we were expecting a room, because I had made a reservation and got a confirmation. What a surprise when I went to check in, and was told they were sold out. The only room available was torn up for the cable man installing a tv. Michele at the desk said she couldn't give us that room. What happened to our reservation?  Michele cancelled the confirmation and put the reason for cancellation as "family emergency ". I will never stay at one of their hotels ever.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r561635745-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -252,9 +420,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded February 20, 2018</t>
   </si>
   <si>
@@ -315,6 +480,54 @@
     <t>1. Check in was fast and easy, But the checking desk was full of clutter and the clerk was busy folding towels. 2. A black cat in the hallways.3. No ice buckets, BUT also NO ICE.4. Furniture was dated and the room had a musty smell.5. WiFi was free but slow.6. Bed was hard and uncomfortable. 7 The tub was draining very slow, so I was standing in a pool of water.8 Yes they had breakfast. Coffee but NO Coffee cups and a granola bar for breakfast. This is Not what I expected, So I will NOT return.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r553570187-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>553570187</t>
+  </si>
+  <si>
+    <t>01/13/2018</t>
+  </si>
+  <si>
+    <t>Okay stay</t>
+  </si>
+  <si>
+    <t>The front desk staff is somewhat friendly. When I got to my room it looked clean at first. Closer inspection showed it was not. In the bathroom there was hair on the wall in the bathroom, a hand towel in the vent fan and the shower rod was about to fall off the wall. The cable didn't work the first two days. The WiFi is horrible and never worked. There was a blood stain on the sheets. It doesn't feel very safe either. I wouldn't want to go wondering around tghe hotel by myself. Luckily I was only here for three days.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded January 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2018</t>
+  </si>
+  <si>
+    <t>The front desk staff is somewhat friendly. When I got to my room it looked clean at first. Closer inspection showed it was not. In the bathroom there was hair on the wall in the bathroom, a hand towel in the vent fan and the shower rod was about to fall off the wall. The cable didn't work the first two days. The WiFi is horrible and never worked. There was a blood stain on the sheets. It doesn't feel very safe either. I wouldn't want to go wondering around tghe hotel by myself. Luckily I was only here for three days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r553568746-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>553568746</t>
+  </si>
+  <si>
+    <t>Things to improve on</t>
+  </si>
+  <si>
+    <t>Business staff was friendly . Needs more towels clean sheets every day. It’s a clean room needs have access to ice machines that work on every floor. Laundry room could you some work in there and you could have more machines and the laundry cost way too much to you.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Business staff was friendly . Needs more towels clean sheets every day. It’s a clean room needs have access to ice machines that work on every floor. Laundry room could you some work in there and you could have more machines and the laundry cost way too much to you.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r551018153-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -381,9 +594,6 @@
     <t>The hotel is in general very good for the price, except that there was no breakfast. Carpets smelled. Sheets were clean, hotel had very easy access, rooms need to be aired before accepting guests. Very good priceMoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded December 28, 2017</t>
   </si>
   <si>
@@ -393,6 +603,54 @@
     <t>The hotel is in general very good for the price, except that there was no breakfast. Carpets smelled. Sheets were clean, hotel had very easy access, rooms need to be aired before accepting guests. Very good priceMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r547287913-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547287913</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>Excellent rates, accommodating, friendly staff</t>
+  </si>
+  <si>
+    <t>Clean, available rooms and a great staff that saw to my needs. Great location that was walking distance to my job---very convenient and I would definitely recommend! No matter what issues I had (which comes with long distance traveling) they were met with prompt and timely responses. This is one of the best extended stays I have had the pleasure of experiencing.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded December 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2017</t>
+  </si>
+  <si>
+    <t>Clean, available rooms and a great staff that saw to my needs. Great location that was walking distance to my job---very convenient and I would definitely recommend! No matter what issues I had (which comes with long distance traveling) they were met with prompt and timely responses. This is one of the best extended stays I have had the pleasure of experiencing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r547187054-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547187054</t>
+  </si>
+  <si>
+    <t>Great comfortable place to stay</t>
+  </si>
+  <si>
+    <t>Clean place to stay and friendly associates. The only negative thing was that it did not have adequate supplies for coffee and breakfast items. Ran out quickly. I felt out of all the people that were staying there they could have used some of that money and went and bought cups and supplies for the people who were staying there. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded December 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2017</t>
+  </si>
+  <si>
+    <t>Clean place to stay and friendly associates. The only negative thing was that it did not have adequate supplies for coffee and breakfast items. Ran out quickly. I felt out of all the people that were staying there they could have used some of that money and went and bought cups and supplies for the people who were staying there. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r539817923-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -462,9 +720,6 @@
     <t>Perfect and awesome! I was on a business visit to USA from india. It was a good time staying there and also the hotel was located nearby to my business work location. Overall the people over there were good and i would like to visit back if i come here back again. A home when you are away from your actual home!MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded July 29, 2017</t>
   </si>
   <si>
@@ -474,6 +729,54 @@
     <t>Perfect and awesome! I was on a business visit to USA from india. It was a good time staying there and also the hotel was located nearby to my business work location. Overall the people over there were good and i would like to visit back if i come here back again. A home when you are away from your actual home!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r504781923-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504781923</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Wasn't to happy</t>
+  </si>
+  <si>
+    <t>First room door didn't lock and another guest told me room had just flooded and they moved him out of it. Went to another it was alright. Need some updates. Pool had a sign it was closed until further notice. So my daughter was upset about that. The internet service didn't work either. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2017</t>
+  </si>
+  <si>
+    <t>First room door didn't lock and another guest told me room had just flooded and they moved him out of it. Went to another it was alright. Need some updates. Pool had a sign it was closed until further notice. So my daughter was upset about that. The internet service didn't work either. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r504460648-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504460648</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>Horrible hotel</t>
+  </si>
+  <si>
+    <t>The room was old, dirty with roaches. A roach traveled in my bag to my car from the room. Total disappointment. I would not ever refer anyone to stay there. Our first room smelled of dog poop. Not happy.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded July 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2017</t>
+  </si>
+  <si>
+    <t>The room was old, dirty with roaches. A roach traveled in my bag to my car from the room. Total disappointment. I would not ever refer anyone to stay there. Our first room smelled of dog poop. Not happy.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r502667223-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -486,7 +789,7 @@
     <t>Hotel From Hell!!!</t>
   </si>
   <si>
-    <t>Where do I started with the roaches or the fact that around 2 a.m Saturday July 15, 2017 To be exact I reported a man breaking windows trying to enter a room downnstairs. Wait I have an even better one for you. How about a man tells me he sale candy, soda and nacho in room 209. Whatever I want they got it🤔🤔🤔I'm like really, what really going on. I told the lady at the front desk!!! Nothing happened, We not going to talk about the use of marijuana that me and my 5 yrs old have to smell on a daily basis. Then you have this Assistant GM, by the name ADRIANA GONZALEZ THAT DOES NOTHING!!! After letting her know about the man breaking the window to get into hotel. She never came in, I had to request that she contact me, hours later she seen to have know care in the world about what happened. To the point of her lying saying the man went to jail. Only because I'm addressing her on her POOR leadership skills. She's trying to tell me what happened and I'm the reason the young lady at the front desk knew and able to call law enforcement why she's at home I'm sure relaxing in her bed. Why we over here freaked out. I didn't get any sleep because I didn't know what the outcome was of this event, my blood pressure is...Where do I started with the roaches or the fact that around 2 a.m Saturday July 15, 2017 To be exact I reported a man breaking windows trying to enter a room downnstairs. Wait I have an even better one for you. How about a man tells me he sale candy, soda and nacho in room 209. Whatever I want they got itI'm like really, what really going on. I told the lady at the front desk!!! Nothing happened, We not going to talk about the use of marijuana that me and my 5 yrs old have to smell on a daily basis. Then you have this Assistant GM, by the name ADRIANA GONZALEZ THAT DOES NOTHING!!! After letting her know about the man breaking the window to get into hotel. She never came in, I had to request that she contact me, hours later she seen to have know care in the world about what happened. To the point of her lying saying the man went to jail. Only because I'm addressing her on her POOR leadership skills. She's trying to tell me what happened and I'm the reason the young lady at the front desk knew and able to call law enforcement why she's at home I'm sure relaxing in her bed. Why we over here freaked out. I didn't get any sleep because I didn't know what the outcome was of this event, my blood pressure is now 160/112. Well guess what the man didn't go to jail afterall, she told them to charged him 250.00 for the window. What happened to informing your guess, since I was the one that reported this mess. Specially with me not knowing if this man saw me. She just flat out lied to me..No one was able to even reach her after the first call. After 10 a.m I was told the man was only trying to get in the room because his wife locked him out.  What that has to do with other's safety I'm not sure. So you telling me if we forget our room card, it's ok just break a window.  If you need to get back into your room. Then she tells me the couple were having a disagreement that no one WITNESS!!! I don't care that has nothing to do with me. I only waitness a man breaking into this place after 2 a.m Now keep in mind NO one WITNESS that part about him and this wife. Still this doesn't justify what took place and the fact she lied about it him going to jail. She was not answering her phone at all!!! Sunday the lady at the front had to be rushed to the hospital but was unable to reach ADRIANA GONZALEZ again, after Numerous attempts to finally reaching her. She had the other young lady that 7 mos expecting to catch the train then and bus to come in on her off day....But ADRIANA GONZALEZ stays near by. What happened to the captain going down with his ship!!! Also a few times, someone Kept setting the major fire alarm off for day in the mornings. Then the fire department has to come out. They even had a man to break into rooms to sleep. The ice machines are very unsafe just nasty and we not going to talk about the cars that was broken into around 10 pm...why 10 pm because the rental cop come in at 11pm....My my my is all I can say. They say you get what you pay for, well when it comes to this places that's a under statement.MoreShow less</t>
+    <t>Where do I started with the roaches or the fact that around 2 a.m Saturday July 15, 2017 To be exact I reported a man breaking windows trying to enter a room downnstairs. Wait I have an even better one for you. How about a man tells me he sale candy, soda and nacho in room 209. Whatever I want they got itI'm like really, what really going on. I told the lady at the front desk!!! Nothing happened, We not going to talk about the use of marijuana that me and my 5 yrs old have to smell on a daily basis. Then you have this Assistant GM, by the name ADRIANA GONZALEZ THAT DOES NOTHING!!! After letting her know about the man breaking the window to get into hotel. She never came in, I had to request that she contact me, hours later she seen to have know care in the world about what happened. To the point of her lying saying the man went to jail. Only because I'm addressing her on her POOR leadership skills. She's trying to tell me what happened and I'm the reason the young lady at the front desk knew and able to call law enforcement why she's at home I'm sure relaxing in her bed. Why we over here freaked out. I didn't get any sleep because I didn't know what the outcome was of this event, my blood pressure is...Where do I started with the roaches or the fact that around 2 a.m Saturday July 15, 2017 To be exact I reported a man breaking windows trying to enter a room downnstairs. Wait I have an even better one for you. How about a man tells me he sale candy, soda and nacho in room 209. Whatever I want they got itI'm like really, what really going on. I told the lady at the front desk!!! Nothing happened, We not going to talk about the use of marijuana that me and my 5 yrs old have to smell on a daily basis. Then you have this Assistant GM, by the name ADRIANA GONZALEZ THAT DOES NOTHING!!! After letting her know about the man breaking the window to get into hotel. She never came in, I had to request that she contact me, hours later she seen to have know care in the world about what happened. To the point of her lying saying the man went to jail. Only because I'm addressing her on her POOR leadership skills. She's trying to tell me what happened and I'm the reason the young lady at the front desk knew and able to call law enforcement why she's at home I'm sure relaxing in her bed. Why we over here freaked out. I didn't get any sleep because I didn't know what the outcome was of this event, my blood pressure is now 160/112. Well guess what the man didn't go to jail afterall, she told them to charged him 250.00 for the window. What happened to informing your guess, since I was the one that reported this mess. Specially with me not knowing if this man saw me. She just flat out lied to me..No one was able to even reach her after the first call. After 10 a.m I was told the man was only trying to get in the room because his wife locked him out.  What that has to do with other's safety I'm not sure. So you telling me if we forget our room card, it's ok just break a window.  If you need to get back into your room. Then she tells me the couple were having a disagreement that no one WITNESS!!! I don't care that has nothing to do with me. I only waitness a man breaking into this place after 2 a.m Now keep in mind NO one WITNESS that part about him and this wife. Still this doesn't justify what took place and the fact she lied about it him going to jail. She was not answering her phone at all!!! Sunday the lady at the front had to be rushed to the hospital but was unable to reach ADRIANA GONZALEZ again, after Numerous attempts to finally reaching her. She had the other young lady that 7 mos expecting to catch the train then and bus to come in on her off day....But ADRIANA GONZALEZ stays near by. What happened to the captain going down with his ship!!! Also a few times, someone Kept setting the major fire alarm off for day in the mornings. Then the fire department has to come out. They even had a man to break into rooms to sleep. The ice machines are very unsafe just nasty and we not going to talk about the cars that was broken into around 10 pm...why 10 pm because the rental cop come in at 11pm....My my my is all I can say. They say you get what you pay for, well when it comes to this places that's a under statement.MoreShow less</t>
   </si>
   <si>
     <t>00esa, General Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded July 18, 2017</t>
@@ -495,7 +798,7 @@
     <t>Responded July 18, 2017</t>
   </si>
   <si>
-    <t>Where do I started with the roaches or the fact that around 2 a.m Saturday July 15, 2017 To be exact I reported a man breaking windows trying to enter a room downnstairs. Wait I have an even better one for you. How about a man tells me he sale candy, soda and nacho in room 209. Whatever I want they got it🤔🤔🤔I'm like really, what really going on. I told the lady at the front desk!!! Nothing happened, We not going to talk about the use of marijuana that me and my 5 yrs old have to smell on a daily basis. Then you have this Assistant GM, by the name ADRIANA GONZALEZ THAT DOES NOTHING!!! After letting her know about the man breaking the window to get into hotel. She never came in, I had to request that she contact me, hours later she seen to have know care in the world about what happened. To the point of her lying saying the man went to jail. Only because I'm addressing her on her POOR leadership skills. She's trying to tell me what happened and I'm the reason the young lady at the front desk knew and able to call law enforcement why she's at home I'm sure relaxing in her bed. Why we over here freaked out. I didn't get any sleep because I didn't know what the outcome was of this event, my blood pressure is...Where do I started with the roaches or the fact that around 2 a.m Saturday July 15, 2017 To be exact I reported a man breaking windows trying to enter a room downnstairs. Wait I have an even better one for you. How about a man tells me he sale candy, soda and nacho in room 209. Whatever I want they got itI'm like really, what really going on. I told the lady at the front desk!!! Nothing happened, We not going to talk about the use of marijuana that me and my 5 yrs old have to smell on a daily basis. Then you have this Assistant GM, by the name ADRIANA GONZALEZ THAT DOES NOTHING!!! After letting her know about the man breaking the window to get into hotel. She never came in, I had to request that she contact me, hours later she seen to have know care in the world about what happened. To the point of her lying saying the man went to jail. Only because I'm addressing her on her POOR leadership skills. She's trying to tell me what happened and I'm the reason the young lady at the front desk knew and able to call law enforcement why she's at home I'm sure relaxing in her bed. Why we over here freaked out. I didn't get any sleep because I didn't know what the outcome was of this event, my blood pressure is now 160/112. Well guess what the man didn't go to jail afterall, she told them to charged him 250.00 for the window. What happened to informing your guess, since I was the one that reported this mess. Specially with me not knowing if this man saw me. She just flat out lied to me..No one was able to even reach her after the first call. After 10 a.m I was told the man was only trying to get in the room because his wife locked him out.  What that has to do with other's safety I'm not sure. So you telling me if we forget our room card, it's ok just break a window.  If you need to get back into your room. Then she tells me the couple were having a disagreement that no one WITNESS!!! I don't care that has nothing to do with me. I only waitness a man breaking into this place after 2 a.m Now keep in mind NO one WITNESS that part about him and this wife. Still this doesn't justify what took place and the fact she lied about it him going to jail. She was not answering her phone at all!!! Sunday the lady at the front had to be rushed to the hospital but was unable to reach ADRIANA GONZALEZ again, after Numerous attempts to finally reaching her. She had the other young lady that 7 mos expecting to catch the train then and bus to come in on her off day....But ADRIANA GONZALEZ stays near by. What happened to the captain going down with his ship!!! Also a few times, someone Kept setting the major fire alarm off for day in the mornings. Then the fire department has to come out. They even had a man to break into rooms to sleep. The ice machines are very unsafe just nasty and we not going to talk about the cars that was broken into around 10 pm...why 10 pm because the rental cop come in at 11pm....My my my is all I can say. They say you get what you pay for, well when it comes to this places that's a under statement.More</t>
+    <t>Where do I started with the roaches or the fact that around 2 a.m Saturday July 15, 2017 To be exact I reported a man breaking windows trying to enter a room downnstairs. Wait I have an even better one for you. How about a man tells me he sale candy, soda and nacho in room 209. Whatever I want they got itI'm like really, what really going on. I told the lady at the front desk!!! Nothing happened, We not going to talk about the use of marijuana that me and my 5 yrs old have to smell on a daily basis. Then you have this Assistant GM, by the name ADRIANA GONZALEZ THAT DOES NOTHING!!! After letting her know about the man breaking the window to get into hotel. She never came in, I had to request that she contact me, hours later she seen to have know care in the world about what happened. To the point of her lying saying the man went to jail. Only because I'm addressing her on her POOR leadership skills. She's trying to tell me what happened and I'm the reason the young lady at the front desk knew and able to call law enforcement why she's at home I'm sure relaxing in her bed. Why we over here freaked out. I didn't get any sleep because I didn't know what the outcome was of this event, my blood pressure is...Where do I started with the roaches or the fact that around 2 a.m Saturday July 15, 2017 To be exact I reported a man breaking windows trying to enter a room downnstairs. Wait I have an even better one for you. How about a man tells me he sale candy, soda and nacho in room 209. Whatever I want they got itI'm like really, what really going on. I told the lady at the front desk!!! Nothing happened, We not going to talk about the use of marijuana that me and my 5 yrs old have to smell on a daily basis. Then you have this Assistant GM, by the name ADRIANA GONZALEZ THAT DOES NOTHING!!! After letting her know about the man breaking the window to get into hotel. She never came in, I had to request that she contact me, hours later she seen to have know care in the world about what happened. To the point of her lying saying the man went to jail. Only because I'm addressing her on her POOR leadership skills. She's trying to tell me what happened and I'm the reason the young lady at the front desk knew and able to call law enforcement why she's at home I'm sure relaxing in her bed. Why we over here freaked out. I didn't get any sleep because I didn't know what the outcome was of this event, my blood pressure is now 160/112. Well guess what the man didn't go to jail afterall, she told them to charged him 250.00 for the window. What happened to informing your guess, since I was the one that reported this mess. Specially with me not knowing if this man saw me. She just flat out lied to me..No one was able to even reach her after the first call. After 10 a.m I was told the man was only trying to get in the room because his wife locked him out.  What that has to do with other's safety I'm not sure. So you telling me if we forget our room card, it's ok just break a window.  If you need to get back into your room. Then she tells me the couple were having a disagreement that no one WITNESS!!! I don't care that has nothing to do with me. I only waitness a man breaking into this place after 2 a.m Now keep in mind NO one WITNESS that part about him and this wife. Still this doesn't justify what took place and the fact she lied about it him going to jail. She was not answering her phone at all!!! Sunday the lady at the front had to be rushed to the hospital but was unable to reach ADRIANA GONZALEZ again, after Numerous attempts to finally reaching her. She had the other young lady that 7 mos expecting to catch the train then and bus to come in on her off day....But ADRIANA GONZALEZ stays near by. What happened to the captain going down with his ship!!! Also a few times, someone Kept setting the major fire alarm off for day in the mornings. Then the fire department has to come out. They even had a man to break into rooms to sleep. The ice machines are very unsafe just nasty and we not going to talk about the cars that was broken into around 10 pm...why 10 pm because the rental cop come in at 11pm....My my my is all I can say. They say you get what you pay for, well when it comes to this places that's a under statement.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r499943575-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
@@ -549,6 +852,57 @@
     <t>After seeing a lot of reviews I was afraid I was checking into a roach motel. I didn't ee a single bug my entire stay. The room was nice clean and smelled fresh. Bed was comfortable, and everything was in working order.There are areas to be improved. The nightstand was won, the outside trash was overflowed And some hallways needed cleaning and maybe retouching on the paint.  The biggest drawback for me making this more than 3 stars is that no iron or ironing board is in the room, that seems an essential for any type hotel billed as extended or long term stays. A few other good things...security patrols the facilities overnight, Wifi connection is solid, location is easy to get too as for Houston there's not a lot of traffic in the area, and you aren't too far from some good shopping and dining facilities.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r494372044-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>494372044</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Look elsewhere</t>
+  </si>
+  <si>
+    <t>The hotel is very much in need of repair/updating, housekeeping and customer service. Facility shows it age and ownership neglect / lack of property reinvestment. Hallways are dirty as well as entry ways needing a good vacuuming. Hotel also has a stale air smell which is most likely from the aged carpeting. Customer Service is also absent at this facility. It took nearly 20 min wait to check in and customers had to sit and wait while the 1 representative attempted to resolve an occupant's complaint. That should have convinced me to leave. Also once checked in requested recommended customized kitchen items which took nearly 2 hours to show up. So Bottom line pass this one by and head down the road.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is very much in need of repair/updating, housekeeping and customer service. Facility shows it age and ownership neglect / lack of property reinvestment. Hallways are dirty as well as entry ways needing a good vacuuming. Hotel also has a stale air smell which is most likely from the aged carpeting. Customer Service is also absent at this facility. It took nearly 20 min wait to check in and customers had to sit and wait while the 1 representative attempted to resolve an occupant's complaint. That should have convinced me to leave. Also once checked in requested recommended customized kitchen items which took nearly 2 hours to show up. So Bottom line pass this one by and head down the road.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r491194494-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>491194494</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay. I just needed to get away a couple of days. I always go for a place with a fridge and microwave. It served the purpose. I would have liked a better breakfast selection but other than that it was fine.  MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded June 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2017</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay. I just needed to get away a couple of days. I always go for a place with a fridge and microwave. It served the purpose. I would have liked a better breakfast selection but other than that it was fine.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r481052654-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -625,6 +979,39 @@
   </si>
   <si>
     <t>I have stayed many nights here at the hotel waiting on meetings in Houston and daily have had to extend they have always kept me in the same room and worked around me,Maria the GM and all of the staff are very polite and do all they can to make your stay as good as it can be,Rooms have cooker top, Microwave and fridge, TV Good channels and internet free and good connectionCannot complain at allMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r460806381-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460806381</t>
+  </si>
+  <si>
+    <t>02/17/2017</t>
+  </si>
+  <si>
+    <t>Extended stays</t>
+  </si>
+  <si>
+    <t>Nice service, eventho first room smelled a bit we quickly got a second one. Service is friendly and works quick. Rooms aren't fancy but have everything you need to stay for a couple of days. Everything works and it's clean</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r458568185-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458568185</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t>Personal experience</t>
+  </si>
+  <si>
+    <t>Only problem that I ran into, in my room # 217 had roaches bad. I informed the night shift lady who stated she would be up in 25 minutes with Roach spray. However she didn't come nor called me back to say anything in regards to this matter. So the next morning after seeing another Roach. I called the front desk and the young man Ryan got right on the problem. Offer me another room ASAP!!!!Also feel the rooms can use a bit of a make over the appliances look as if they have been in a war...and have taking a beating badly.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r439548310-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
@@ -692,6 +1079,42 @@
   </si>
   <si>
     <t>Very nice rooms with affordable price, also well equipped with microwave, fridge, cooking utensils etc. Vehicle available to convey us to our training center upon request. the environment is quiet and conducive to live in. i will gladly recommend this hotel to everyone because is very affordable and value for money. Thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r437649920-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437649920</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t>The room and staff was great General Manager went over and beyond,great stay</t>
+  </si>
+  <si>
+    <t>Nice stay clean rooms Will come back really enjoyed Houston-West side lot access to malls,Restaurant,Extended Stay America Katy Freeway is very nice. I have five coworker staying here able to cook is valuableMoreShow less</t>
+  </si>
+  <si>
+    <t>Nice stay clean rooms Will come back really enjoyed Houston-West side lot access to malls,Restaurant,Extended Stay America Katy Freeway is very nice. I have five coworker staying here able to cook is valuableMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r424986669-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>424986669</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>Roaches</t>
+  </si>
+  <si>
+    <t>Roaches in the room (alive and no, we didn't have any food in the room to attract them). The pool water is brownish green. The bath fixtures are corroded. The bath was retrofitted with a plastic cover (part of the "newly remodeled" bit they tout) but there's a gap between the old tub bottom and the new plastic one so when you step in the tub, it gives way with each movement. Very unstable. Breakfast is coffee and pre-packaged granola bars. And did I mention the roaches? Live ones. Dead pieces of them like the roach leg on the vent hood in the kitchenette. Overall extremely disappointing.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r421344870-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
@@ -774,6 +1197,48 @@
     <t>I had a nice experience at Extended Stay America. The front Desk, the Manager and staff were very friendly and resourceful. The rooms are spacious. I didnt like the idea of cleaning the rooms (housekeeping) only once a week.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r395805864-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>395805864</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Nice management but very poor maintenance.</t>
+  </si>
+  <si>
+    <t>Moving to the Houston area and stayed June 18 for 5 days while looking at homes for sales.  Rooms are in poor conditions and not properly cleaned, requested to move into a different room and it was not much better.  Pool area  littered with cigarette butts, trash piled up in hallway next to ice machines overnight. On returning home Daughter broke out with bed bug bites.  If you are a family with children do not stay here.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r391200164-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>391200164</t>
+  </si>
+  <si>
+    <t>07/10/2016</t>
+  </si>
+  <si>
+    <t>Pleasant Weekend Stay</t>
+  </si>
+  <si>
+    <t>I spent the weekend here from July 8th to the 11th to visit with my 6 month old grandson.  It was very quiet and the room was average for this price range. I have no complaints.  The staff was nice and accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Katy Freeway - Energy Corridor, responded to this reviewResponded July 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2016</t>
+  </si>
+  <si>
+    <t>I spent the weekend here from July 8th to the 11th to visit with my 6 month old grandson.  It was very quiet and the room was average for this price range. I have no complaints.  The staff was nice and accommodating.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d595438-r390869247-Extended_Stay_America_Houston_Katy_Freeway_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -835,9 +1300,6 @@
   </si>
   <si>
     <t>Rooms are clean and comfortable ,full size refrigerator and nice kitchenette in rooms. staff is helpful..wifi is poor and doesn't work most of the time. Free breakfast is limited..overall not a bad place to stay in Houston.</t>
-  </si>
-  <si>
-    <t>June 2016</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1834,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1385,10 +1847,12 @@
         <v>2</v>
       </c>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1439,12 +1903,8 @@
       <c r="M3" t="n">
         <v>5</v>
       </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>52</v>
-      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
@@ -1455,13 +1915,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
         <v>62</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>63</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -1477,7 +1937,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1486,10 +1946,10 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
         <v>66</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
       </c>
       <c r="K4" t="s">
         <v>67</v>
@@ -1498,7 +1958,7 @@
         <v>68</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
         <v>69</v>
@@ -1507,11 +1967,13 @@
         <v>70</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>5</v>
@@ -1520,13 +1982,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -1542,7 +2004,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1551,50 +2013,40 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s">
         <v>81</v>
@@ -1634,41 +2086,31 @@
         <v>86</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>70</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -1684,7 +2126,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1693,30 +2135,30 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" t="n">
+        <v>96</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
         <v>2</v>
       </c>
-      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
@@ -1727,13 +2169,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
@@ -1749,7 +2191,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1758,42 +2200,32 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
@@ -1832,50 +2264,44 @@
         <v>109</v>
       </c>
       <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
         <v>110</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>111</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>112</v>
       </c>
-      <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s">
-        <v>95</v>
-      </c>
       <c r="O9" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="X9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y9" t="s">
         <v>114</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="10">
@@ -1891,7 +2317,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1900,53 +2326,43 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
         <v>117</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>118</v>
       </c>
-      <c r="K10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L10" t="s">
-        <v>120</v>
-      </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>121</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="X10" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="Y10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
@@ -1962,7 +2378,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1971,49 +2387,43 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s">
-        <v>78</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>3</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="X11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="Y11" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
@@ -2029,7 +2439,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2038,43 +2448,53 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="O12" t="s">
         <v>70</v>
       </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="X12" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Y12" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
@@ -2090,7 +2510,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2099,25 +2519,25 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="O13" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2129,7 +2549,7 @@
         <v>5</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
@@ -2139,13 +2559,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="X13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
@@ -2161,7 +2581,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2170,43 +2590,47 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O14" t="s">
-        <v>70</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="X14" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Y14" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
@@ -2222,7 +2646,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2231,47 +2655,43 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>1</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="X15" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="Y15" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
@@ -2287,7 +2707,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2296,47 +2716,43 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="O16" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>3</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>4</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="X16" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="Y16" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
@@ -2352,7 +2768,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2361,47 +2777,53 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J17" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="O17" t="s">
-        <v>78</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
       <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="X17" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="Y17" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
@@ -2417,7 +2839,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2426,32 +2848,38 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J18" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="O18" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>2</v>
@@ -2460,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="X18" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="Y18" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
@@ -2482,7 +2910,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2491,49 +2919,53 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="K19" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="O19" t="s">
-        <v>70</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
       <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="X19" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="Y19" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
@@ -2549,7 +2981,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2558,49 +2990,43 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="J20" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K20" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="O20" t="s">
-        <v>70</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="X20" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="Y20" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
@@ -2616,7 +3042,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2625,43 +3051,43 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="J21" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="O21" t="s">
-        <v>121</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>2</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>208</v>
+      </c>
+      <c r="X21" t="s">
+        <v>209</v>
+      </c>
       <c r="Y21" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22">
@@ -2677,7 +3103,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2686,47 +3112,49 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="J22" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="K22" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="O22" t="s">
         <v>70</v>
       </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="s"/>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="X22" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Y22" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
@@ -2742,7 +3170,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2751,25 +3179,25 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J23" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K23" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L23" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2780,8 +3208,12 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>226</v>
+      </c>
+      <c r="X23" t="s">
+        <v>227</v>
+      </c>
       <c r="Y23" t="s">
         <v>228</v>
       </c>
@@ -2799,7 +3231,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -2808,37 +3240,51 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J24" t="s">
         <v>231</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>232</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>233</v>
       </c>
-      <c r="L24" t="s">
-        <v>234</v>
-      </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>235</v>
+        <v>166</v>
       </c>
       <c r="O24" t="s">
-        <v>78</v>
-      </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>234</v>
+      </c>
+      <c r="X24" t="s">
+        <v>235</v>
+      </c>
       <c r="Y24" t="s">
         <v>236</v>
       </c>
@@ -2877,37 +3323,41 @@
         <v>241</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c r="O25" t="s">
-        <v>70</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
       <c r="R25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
+        <v>242</v>
+      </c>
+      <c r="X25" t="s">
         <v>243</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>244</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="26">
@@ -2923,7 +3373,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -2932,49 +3382,53 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
+        <v>246</v>
+      </c>
+      <c r="J26" t="s">
         <v>247</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>248</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>249</v>
       </c>
-      <c r="L26" t="s">
-        <v>250</v>
-      </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c r="O26" t="s">
-        <v>70</v>
-      </c>
-      <c r="P26" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
       <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
+        <v>250</v>
+      </c>
+      <c r="X26" t="s">
         <v>251</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>252</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="27">
@@ -2990,7 +3444,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -2999,25 +3453,25 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" t="s">
         <v>255</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>256</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>257</v>
       </c>
-      <c r="L27" t="s">
-        <v>258</v>
-      </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c r="O27" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3029,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
+        <v>258</v>
+      </c>
+      <c r="X27" t="s">
         <v>259</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>260</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="28">
@@ -3051,7 +3505,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3060,39 +3514,1374 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
+        <v>262</v>
+      </c>
+      <c r="J28" t="s">
         <v>263</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>264</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>265</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
         <v>266</v>
       </c>
-      <c r="M28" t="n">
-        <v>3</v>
-      </c>
-      <c r="N28" t="s">
-        <v>267</v>
-      </c>
       <c r="O28" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>267</v>
+      </c>
+      <c r="X28" t="s">
+        <v>268</v>
+      </c>
       <c r="Y28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>271</v>
+      </c>
+      <c r="J29" t="s">
+        <v>272</v>
+      </c>
+      <c r="K29" t="s">
+        <v>273</v>
+      </c>
+      <c r="L29" t="s">
+        <v>274</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>166</v>
+      </c>
+      <c r="O29" t="s">
+        <v>70</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>275</v>
+      </c>
+      <c r="X29" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>278</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>279</v>
+      </c>
+      <c r="J30" t="s">
+        <v>280</v>
+      </c>
+      <c r="K30" t="s">
+        <v>281</v>
+      </c>
+      <c r="L30" t="s">
+        <v>282</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
         <v>266</v>
+      </c>
+      <c r="O30" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>283</v>
+      </c>
+      <c r="X30" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>286</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>287</v>
+      </c>
+      <c r="J31" t="s">
+        <v>288</v>
+      </c>
+      <c r="K31" t="s">
+        <v>289</v>
+      </c>
+      <c r="L31" t="s">
+        <v>290</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>291</v>
+      </c>
+      <c r="O31" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>292</v>
+      </c>
+      <c r="X31" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>295</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>296</v>
+      </c>
+      <c r="J32" t="s">
+        <v>297</v>
+      </c>
+      <c r="K32" t="s">
+        <v>298</v>
+      </c>
+      <c r="L32" t="s">
+        <v>299</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>300</v>
+      </c>
+      <c r="O32" t="s">
+        <v>70</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>301</v>
+      </c>
+      <c r="X32" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>304</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>305</v>
+      </c>
+      <c r="J33" t="s">
+        <v>306</v>
+      </c>
+      <c r="K33" t="s">
+        <v>307</v>
+      </c>
+      <c r="L33" t="s">
+        <v>308</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>309</v>
+      </c>
+      <c r="O33" t="s">
+        <v>80</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>310</v>
+      </c>
+      <c r="X33" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>313</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>314</v>
+      </c>
+      <c r="J34" t="s">
+        <v>315</v>
+      </c>
+      <c r="K34" t="s">
+        <v>316</v>
+      </c>
+      <c r="L34" t="s">
+        <v>317</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>309</v>
+      </c>
+      <c r="O34" t="s">
+        <v>113</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>318</v>
+      </c>
+      <c r="X34" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>321</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>322</v>
+      </c>
+      <c r="J35" t="s">
+        <v>323</v>
+      </c>
+      <c r="K35" t="s">
+        <v>324</v>
+      </c>
+      <c r="L35" t="s">
+        <v>325</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>326</v>
+      </c>
+      <c r="O35" t="s">
+        <v>80</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>327</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>328</v>
+      </c>
+      <c r="J36" t="s">
+        <v>329</v>
+      </c>
+      <c r="K36" t="s">
+        <v>330</v>
+      </c>
+      <c r="L36" t="s">
+        <v>331</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>326</v>
+      </c>
+      <c r="O36" t="s">
+        <v>80</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>332</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>333</v>
+      </c>
+      <c r="J37" t="s">
+        <v>334</v>
+      </c>
+      <c r="K37" t="s">
+        <v>335</v>
+      </c>
+      <c r="L37" t="s">
+        <v>336</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>337</v>
+      </c>
+      <c r="O37" t="s">
+        <v>113</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>338</v>
+      </c>
+      <c r="X37" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>341</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>342</v>
+      </c>
+      <c r="J38" t="s">
+        <v>343</v>
+      </c>
+      <c r="K38" t="s">
+        <v>344</v>
+      </c>
+      <c r="L38" t="s">
+        <v>345</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>337</v>
+      </c>
+      <c r="O38" t="s">
+        <v>80</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>347</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>348</v>
+      </c>
+      <c r="J39" t="s">
+        <v>349</v>
+      </c>
+      <c r="K39" t="s">
+        <v>350</v>
+      </c>
+      <c r="L39" t="s">
+        <v>351</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>337</v>
+      </c>
+      <c r="O39" t="s">
+        <v>113</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>338</v>
+      </c>
+      <c r="X39" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>353</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>354</v>
+      </c>
+      <c r="J40" t="s">
+        <v>355</v>
+      </c>
+      <c r="K40" t="s">
+        <v>356</v>
+      </c>
+      <c r="L40" t="s">
+        <v>357</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>337</v>
+      </c>
+      <c r="O40" t="s">
+        <v>113</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>338</v>
+      </c>
+      <c r="X40" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>359</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>360</v>
+      </c>
+      <c r="J41" t="s">
+        <v>361</v>
+      </c>
+      <c r="K41" t="s">
+        <v>362</v>
+      </c>
+      <c r="L41" t="s">
+        <v>363</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>364</v>
+      </c>
+      <c r="O41" t="s">
+        <v>80</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>365</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>366</v>
+      </c>
+      <c r="J42" t="s">
+        <v>367</v>
+      </c>
+      <c r="K42" t="s">
+        <v>368</v>
+      </c>
+      <c r="L42" t="s">
+        <v>369</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>370</v>
+      </c>
+      <c r="O42" t="s">
+        <v>96</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>371</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>372</v>
+      </c>
+      <c r="J43" t="s">
+        <v>373</v>
+      </c>
+      <c r="K43" t="s">
+        <v>374</v>
+      </c>
+      <c r="L43" t="s">
+        <v>375</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>376</v>
+      </c>
+      <c r="O43" t="s">
+        <v>70</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>378</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>379</v>
+      </c>
+      <c r="J44" t="s">
+        <v>380</v>
+      </c>
+      <c r="K44" t="s">
+        <v>381</v>
+      </c>
+      <c r="L44" t="s">
+        <v>382</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>383</v>
+      </c>
+      <c r="O44" t="s">
+        <v>113</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>384</v>
+      </c>
+      <c r="X44" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>387</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>388</v>
+      </c>
+      <c r="J45" t="s">
+        <v>389</v>
+      </c>
+      <c r="K45" t="s">
+        <v>390</v>
+      </c>
+      <c r="L45" t="s">
+        <v>391</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>392</v>
+      </c>
+      <c r="O45" t="s">
+        <v>113</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>393</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>394</v>
+      </c>
+      <c r="J46" t="s">
+        <v>395</v>
+      </c>
+      <c r="K46" t="s">
+        <v>396</v>
+      </c>
+      <c r="L46" t="s">
+        <v>397</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>383</v>
+      </c>
+      <c r="O46" t="s">
+        <v>80</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>398</v>
+      </c>
+      <c r="X46" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>401</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>402</v>
+      </c>
+      <c r="J47" t="s">
+        <v>403</v>
+      </c>
+      <c r="K47" t="s">
+        <v>404</v>
+      </c>
+      <c r="L47" t="s">
+        <v>405</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>383</v>
+      </c>
+      <c r="O47" t="s">
+        <v>113</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>406</v>
+      </c>
+      <c r="X47" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>409</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>410</v>
+      </c>
+      <c r="J48" t="s">
+        <v>411</v>
+      </c>
+      <c r="K48" t="s">
+        <v>412</v>
+      </c>
+      <c r="L48" t="s">
+        <v>413</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>383</v>
+      </c>
+      <c r="O48" t="s">
+        <v>113</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>414</v>
+      </c>
+      <c r="X48" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>417</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>418</v>
+      </c>
+      <c r="J49" t="s">
+        <v>419</v>
+      </c>
+      <c r="K49" t="s">
+        <v>420</v>
+      </c>
+      <c r="L49" t="s">
+        <v>421</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>392</v>
+      </c>
+      <c r="O49" t="s">
+        <v>113</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
